--- a/R/data/quiz_250303.xlsx
+++ b/R/data/quiz_250303.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="418">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1082,6 +1082,189 @@
   </si>
   <si>
     <t>김도영</t>
+  </si>
+  <si>
+    <t>kkddyy329@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스학부 (데이터테크)</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>02gyeongwon@naver.com</t>
+  </si>
+  <si>
+    <t>박경원</t>
+  </si>
+  <si>
+    <t>dlatmddbr2003@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>임승욱</t>
+  </si>
+  <si>
+    <t>cksals9364@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합</t>
+  </si>
+  <si>
+    <t>김찬민</t>
+  </si>
+  <si>
+    <t>kmj060318@gmail.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>hanhh3209@naver.com</t>
+  </si>
+  <si>
+    <t>한혜민</t>
+  </si>
+  <si>
+    <t>hl24gh0308@gmail.com</t>
+  </si>
+  <si>
+    <t>김지웅</t>
+  </si>
+  <si>
+    <t>yyeon0425@gmail.com</t>
+  </si>
+  <si>
+    <t>김연우</t>
+  </si>
+  <si>
+    <t>yewon0311_@naver.com</t>
+  </si>
+  <si>
+    <t>김예원</t>
+  </si>
+  <si>
+    <t>ngjh1026@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">남궁정현 </t>
+  </si>
+  <si>
+    <t>sol3499@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재 공학</t>
+  </si>
+  <si>
+    <t>주찬솔</t>
+  </si>
+  <si>
+    <t>cyw3690@gmail.com</t>
+  </si>
+  <si>
+    <t>최영우</t>
+  </si>
+  <si>
+    <t>anharam039@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 IT 학과</t>
+  </si>
+  <si>
+    <t>안하람</t>
+  </si>
+  <si>
+    <t>pjy051011@gmail.com</t>
+  </si>
+  <si>
+    <t>박제윤</t>
+  </si>
+  <si>
+    <t>dongil00001@naver.com</t>
+  </si>
+  <si>
+    <t>김동일</t>
+  </si>
+  <si>
+    <t>coolsky-05051@naver.com</t>
+  </si>
+  <si>
+    <t>최주영</t>
+  </si>
+  <si>
+    <t>chxxhxxck@naver.com</t>
+  </si>
+  <si>
+    <t>박찬혁</t>
+  </si>
+  <si>
+    <t>wjsskan13@naver.com</t>
+  </si>
+  <si>
+    <t>정치행정</t>
+  </si>
+  <si>
+    <t>전나무</t>
+  </si>
+  <si>
+    <t>knw010211@gmail.com</t>
+  </si>
+  <si>
+    <t>김남우</t>
+  </si>
+  <si>
+    <t>u13u13@naver.com</t>
+  </si>
+  <si>
+    <t>정민교</t>
+  </si>
+  <si>
+    <t>chlwhddbs715@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체공학과</t>
+  </si>
+  <si>
+    <t>최종윤</t>
+  </si>
+  <si>
+    <t>seoulsion123@gmail.com</t>
+  </si>
+  <si>
+    <t>러시아학과</t>
+  </si>
+  <si>
+    <t>최시온</t>
+  </si>
+  <si>
+    <t>dhdhdh1010@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>ekksx@naver.com</t>
+  </si>
+  <si>
+    <t>sarahmood@naver.com</t>
+  </si>
+  <si>
+    <t>복은비</t>
+  </si>
+  <si>
+    <t>htkhwan@naver.com</t>
+  </si>
+  <si>
+    <t>김성민</t>
+  </si>
+  <si>
+    <t>yj030207@naver.com</t>
+  </si>
+  <si>
+    <t>김유진</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1295,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -1245,10 +1428,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1256,27 +1439,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1286,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1353,9 +1522,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1414,7 +1580,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:K136" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:K163" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="11">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -5983,35 +6149,899 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="20">
+      <c r="A136" s="16">
         <v>45721.40081143519</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="D136" s="21">
+      <c r="D136" s="17">
         <v>2.0246609E7</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="E136" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="F136" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I136" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K136" s="22" t="s">
+      <c r="F136" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" s="19" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="14">
+        <v>45721.426651180554</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D137" s="15">
+        <v>2.0243208E7</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J137" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="16">
+        <v>45721.449040694446</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D138" s="17">
+        <v>2.0212617E7</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="14">
+        <v>45721.458261990745</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D139" s="15">
+        <v>2.0223253E7</v>
+      </c>
+      <c r="E139" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="16">
+        <v>45721.460293275464</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D140" s="17">
+        <v>2.0226726E7</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F140" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="14">
+        <v>45721.46078826389</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D141" s="15">
+        <v>2.025271E7</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K141" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="16">
+        <v>45721.53081686342</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D142" s="17">
+        <v>2.0242759E7</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F142" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="14">
+        <v>45721.538583738424</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="15">
+        <v>2.0246226E7</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J143" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="16">
+        <v>45721.54530135417</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D144" s="17">
+        <v>2.0232517E7</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F144" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K144" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="14">
+        <v>45721.547502291665</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D145" s="15">
+        <v>2.0221706E7</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K145" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="16">
+        <v>45721.55983106482</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="17">
+        <v>2.0232813E7</v>
+      </c>
+      <c r="E146" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="F146" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="14">
+        <v>45721.58323863426</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D147" s="15">
+        <v>2.0216641E7</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="16">
+        <v>45721.58371545139</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D148" s="17">
+        <v>2.0242581E7</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J148" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="14">
+        <v>45721.58704922454</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D149" s="15">
+        <v>2.0243413E7</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="16">
+        <v>45721.58923950231</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D150" s="17">
+        <v>2.0246921E7</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J150" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="14">
+        <v>45721.59077608796</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D151" s="15">
+        <v>2.0232408E7</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K151" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="16">
+        <v>45721.59190827546</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="17">
+        <v>2.0242139E7</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F152" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="14">
+        <v>45721.59311420139</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D153" s="15">
+        <v>2.0202616E7</v>
+      </c>
+      <c r="E153" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="16">
+        <v>45721.5938775463</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D154" s="17">
+        <v>2.0242432E7</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K154" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="14">
+        <v>45721.59401261574</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" s="15">
+        <v>2.0202405E7</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K155" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="16">
+        <v>45721.601373854166</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D156" s="17">
+        <v>2.0212638E7</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="F156" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J156" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="14">
+        <v>45721.60784067129</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D157" s="15">
+        <v>2.023335E7</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K157" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="16">
+        <v>45721.61294521991</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D158" s="17">
+        <v>2.023173E7</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="14">
+        <v>45721.62015391204</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="15">
+        <v>2.0242208E7</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K159" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="16">
+        <v>45721.62035561343</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="17">
+        <v>2.0242207E7</v>
+      </c>
+      <c r="E160" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J160" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="14">
+        <v>45721.62315128472</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D161" s="15">
+        <v>2.0222823E7</v>
+      </c>
+      <c r="E161" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K161" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="16">
+        <v>45721.64336106482</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D162" s="17">
+        <v>2.0214109E7</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K162" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="20">
+        <v>45721.64679101852</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D163" s="21">
+        <v>2.0233306E7</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J163" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
